--- a/datos_prueba_wilcoxon.xlsx
+++ b/datos_prueba_wilcoxon.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vets/Documents/GitHub/Proyecto_E2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5279F4C5-C257-8049-A62D-8B74092E8ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7824" windowHeight="9048"/>
+    <workbookView xWindow="3080" yWindow="2120" windowWidth="28040" windowHeight="17440" xr2:uid="{A28FB2FE-B59B-3045-A44B-82F8B96CD993}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -26,21 +38,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>A</t>
+    <t>X</t>
   </si>
   <si>
-    <t>B</t>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -53,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -61,12 +87,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -85,7 +132,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -95,39 +142,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -160,9 +207,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -195,6 +259,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -256,13 +337,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -271,6 +345,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -335,83 +416,1657 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9266BB-677C-604B-891C-AB95597CF827}">
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="B2">
-        <v>0.129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="B3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0.108</v>
-      </c>
-      <c r="B4">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="B5">
-        <v>0.152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="B6">
-        <v>0.13500000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="B7">
-        <v>0.16300000000000001</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>758</v>
+      </c>
+      <c r="B2" s="1">
+        <v>179</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>765</v>
+      </c>
+      <c r="B3" s="1">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>266</v>
+      </c>
+      <c r="B4" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>141</v>
+      </c>
+      <c r="B5" s="1">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>803</v>
+      </c>
+      <c r="B6" s="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>582</v>
+      </c>
+      <c r="B7" s="1">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>404</v>
+      </c>
+      <c r="B8" s="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>790</v>
+      </c>
+      <c r="B9" s="1">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>530</v>
+      </c>
+      <c r="B10" s="1">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>627</v>
+      </c>
+      <c r="B11" s="1">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>483</v>
+      </c>
+      <c r="B12" s="1">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>356</v>
+      </c>
+      <c r="B13" s="1">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>124</v>
+      </c>
+      <c r="B14" s="1">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>760</v>
+      </c>
+      <c r="B15" s="1">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>973</v>
+      </c>
+      <c r="B16" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>965</v>
+      </c>
+      <c r="B17" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>983</v>
+      </c>
+      <c r="B18" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>233</v>
+      </c>
+      <c r="B19" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>329</v>
+      </c>
+      <c r="B20" s="1">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>830</v>
+      </c>
+      <c r="B21" s="1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>150</v>
+      </c>
+      <c r="B22" s="1">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>593</v>
+      </c>
+      <c r="B23" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>802</v>
+      </c>
+      <c r="B24" s="1">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>218</v>
+      </c>
+      <c r="B25" s="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>660</v>
+      </c>
+      <c r="B26" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>238</v>
+      </c>
+      <c r="B27" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>682</v>
+      </c>
+      <c r="B28" s="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>536</v>
+      </c>
+      <c r="B29" s="1">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>923</v>
+      </c>
+      <c r="B30" s="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>462</v>
+      </c>
+      <c r="B31" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>794</v>
+      </c>
+      <c r="B32" s="1">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>720</v>
+      </c>
+      <c r="B33" s="1">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>843</v>
+      </c>
+      <c r="B34" s="1">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>730</v>
+      </c>
+      <c r="B35" s="1">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>942</v>
+      </c>
+      <c r="B36" s="1">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>710</v>
+      </c>
+      <c r="B37" s="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>485</v>
+      </c>
+      <c r="B38" s="1">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>778</v>
+      </c>
+      <c r="B39" s="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>117</v>
+      </c>
+      <c r="B40" s="1">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>289</v>
+      </c>
+      <c r="B41" s="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>341</v>
+      </c>
+      <c r="B42" s="1">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>965</v>
+      </c>
+      <c r="B43" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>220</v>
+      </c>
+      <c r="B44" s="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>419</v>
+      </c>
+      <c r="B45" s="1">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>712</v>
+      </c>
+      <c r="B46" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>836</v>
+      </c>
+      <c r="B47" s="1">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>922</v>
+      </c>
+      <c r="B48" s="1">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>629</v>
+      </c>
+      <c r="B49" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>588</v>
+      </c>
+      <c r="B50" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>274</v>
+      </c>
+      <c r="B51" s="1">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>563</v>
+      </c>
+      <c r="B52" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>585</v>
+      </c>
+      <c r="B53" s="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>594</v>
+      </c>
+      <c r="B54" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>967</v>
+      </c>
+      <c r="B55" s="1">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>150</v>
+      </c>
+      <c r="B56" s="1">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>943</v>
+      </c>
+      <c r="B57" s="1">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>904</v>
+      </c>
+      <c r="B58" s="1">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>932</v>
+      </c>
+      <c r="B59" s="1">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>541</v>
+      </c>
+      <c r="B60" s="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>631</v>
+      </c>
+      <c r="B61" s="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>832</v>
+      </c>
+      <c r="B62" s="1">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>552</v>
+      </c>
+      <c r="B63" s="1">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>310</v>
+      </c>
+      <c r="B64" s="1">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>902</v>
+      </c>
+      <c r="B65" s="1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>594</v>
+      </c>
+      <c r="B66" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>929</v>
+      </c>
+      <c r="B67" s="1">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>839</v>
+      </c>
+      <c r="B68" s="1">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>551</v>
+      </c>
+      <c r="B69" s="1">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>160</v>
+      </c>
+      <c r="B70" s="1">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>326</v>
+      </c>
+      <c r="B71" s="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>865</v>
+      </c>
+      <c r="B72" s="1">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>246</v>
+      </c>
+      <c r="B73" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>902</v>
+      </c>
+      <c r="B74" s="1">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>368</v>
+      </c>
+      <c r="B75" s="1">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>947</v>
+      </c>
+      <c r="B76" s="1">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>213</v>
+      </c>
+      <c r="B77" s="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>168</v>
+      </c>
+      <c r="B78" s="1">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>376</v>
+      </c>
+      <c r="B79" s="1">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>177</v>
+      </c>
+      <c r="B80" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>123</v>
+      </c>
+      <c r="B81" s="1">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>677</v>
+      </c>
+      <c r="B82" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>851</v>
+      </c>
+      <c r="B83" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>183</v>
+      </c>
+      <c r="B84" s="1">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>172</v>
+      </c>
+      <c r="B85" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>510</v>
+      </c>
+      <c r="B86" s="1">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>390</v>
+      </c>
+      <c r="B87" s="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>224</v>
+      </c>
+      <c r="B88" s="1">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>379</v>
+      </c>
+      <c r="B89" s="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>227</v>
+      </c>
+      <c r="B90" s="1">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>757</v>
+      </c>
+      <c r="B91" s="1">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>432</v>
+      </c>
+      <c r="B92" s="1">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>772</v>
+      </c>
+      <c r="B93" s="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>725</v>
+      </c>
+      <c r="B94" s="1">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>738</v>
+      </c>
+      <c r="B95" s="1">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>560</v>
+      </c>
+      <c r="B96" s="1">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>460</v>
+      </c>
+      <c r="B97" s="1">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>734</v>
+      </c>
+      <c r="B98" s="1">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>629</v>
+      </c>
+      <c r="B99" s="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>172</v>
+      </c>
+      <c r="B100" s="1">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>927</v>
+      </c>
+      <c r="B101" s="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>789</v>
+      </c>
+      <c r="B102" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>595</v>
+      </c>
+      <c r="B103" s="1">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>165</v>
+      </c>
+      <c r="B104" s="1">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>866</v>
+      </c>
+      <c r="B105" s="1">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>560</v>
+      </c>
+      <c r="B106" s="1">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>675</v>
+      </c>
+      <c r="B107" s="1">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>246</v>
+      </c>
+      <c r="B108" s="1">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>609</v>
+      </c>
+      <c r="B109" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>792</v>
+      </c>
+      <c r="B110" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>189</v>
+      </c>
+      <c r="B111" s="1">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>472</v>
+      </c>
+      <c r="B112" s="1">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>439</v>
+      </c>
+      <c r="B113" s="1">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>504</v>
+      </c>
+      <c r="B114" s="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>963</v>
+      </c>
+      <c r="B115" s="1">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>739</v>
+      </c>
+      <c r="B116" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>304</v>
+      </c>
+      <c r="B117" s="1">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>370</v>
+      </c>
+      <c r="B118" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>153</v>
+      </c>
+      <c r="B119" s="1">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>501</v>
+      </c>
+      <c r="B120" s="1">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>324</v>
+      </c>
+      <c r="B121" s="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>567</v>
+      </c>
+      <c r="B122" s="1">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>541</v>
+      </c>
+      <c r="B123" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>664</v>
+      </c>
+      <c r="B124" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>938</v>
+      </c>
+      <c r="B125" s="1">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>721</v>
+      </c>
+      <c r="B126" s="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>280</v>
+      </c>
+      <c r="B127" s="1">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>301</v>
+      </c>
+      <c r="B128" s="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>244</v>
+      </c>
+      <c r="B129" s="1">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>153</v>
+      </c>
+      <c r="B130" s="1">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>234</v>
+      </c>
+      <c r="B131" s="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>576</v>
+      </c>
+      <c r="B132" s="1">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>226</v>
+      </c>
+      <c r="B133" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>814</v>
+      </c>
+      <c r="B134" s="1">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>835</v>
+      </c>
+      <c r="B135" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>596</v>
+      </c>
+      <c r="B136" s="1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>411</v>
+      </c>
+      <c r="B137" s="1">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>166</v>
+      </c>
+      <c r="B138" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>499</v>
+      </c>
+      <c r="B139" s="1">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>753</v>
+      </c>
+      <c r="B140" s="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>504</v>
+      </c>
+      <c r="B141" s="1">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>374</v>
+      </c>
+      <c r="B142" s="1">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>569</v>
+      </c>
+      <c r="B143" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>852</v>
+      </c>
+      <c r="B144" s="1">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>767</v>
+      </c>
+      <c r="B145" s="1">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>252</v>
+      </c>
+      <c r="B146" s="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>708</v>
+      </c>
+      <c r="B147" s="1">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>985</v>
+      </c>
+      <c r="B148" s="1">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>724</v>
+      </c>
+      <c r="B149" s="1">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>752</v>
+      </c>
+      <c r="B150" s="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>441</v>
+      </c>
+      <c r="B151" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>302</v>
+      </c>
+      <c r="B152" s="1">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>161</v>
+      </c>
+      <c r="B153" s="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>950</v>
+      </c>
+      <c r="B154" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>981</v>
+      </c>
+      <c r="B155" s="1">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>728</v>
+      </c>
+      <c r="B156" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>334</v>
+      </c>
+      <c r="B157" s="1">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>947</v>
+      </c>
+      <c r="B158" s="1">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>315</v>
+      </c>
+      <c r="B159" s="1">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>975</v>
+      </c>
+      <c r="B160" s="1">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>340</v>
+      </c>
+      <c r="B161" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>209</v>
+      </c>
+      <c r="B162" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>752</v>
+      </c>
+      <c r="B163" s="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>805</v>
+      </c>
+      <c r="B164" s="1">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>375</v>
+      </c>
+      <c r="B165" s="1">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>809</v>
+      </c>
+      <c r="B166" s="1">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>674</v>
+      </c>
+      <c r="B167" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>932</v>
+      </c>
+      <c r="B168" s="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>271</v>
+      </c>
+      <c r="B169" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>875</v>
+      </c>
+      <c r="B170" s="1">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>646</v>
+      </c>
+      <c r="B171" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>993</v>
+      </c>
+      <c r="B172" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>341</v>
+      </c>
+      <c r="B173" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>103</v>
+      </c>
+      <c r="B174" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>660</v>
+      </c>
+      <c r="B175" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>937</v>
+      </c>
+      <c r="B176" s="1">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>963</v>
+      </c>
+      <c r="B177" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>962</v>
+      </c>
+      <c r="B178" s="1">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>783</v>
+      </c>
+      <c r="B179" s="1">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>973</v>
+      </c>
+      <c r="B180" s="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>779</v>
+      </c>
+      <c r="B181" s="1">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>500</v>
+      </c>
+      <c r="B182" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>123</v>
+      </c>
+      <c r="B183" s="1">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>332</v>
+      </c>
+      <c r="B184" s="1">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>713</v>
+      </c>
+      <c r="B185" s="1">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>620</v>
+      </c>
+      <c r="B186" s="1">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>273</v>
+      </c>
+      <c r="B187" s="1">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>939</v>
+      </c>
+      <c r="B188" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>891</v>
+      </c>
+      <c r="B189" s="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>112</v>
+      </c>
+      <c r="B190" s="1">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>717</v>
+      </c>
+      <c r="B191" s="1">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>250</v>
+      </c>
+      <c r="B192" s="1">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>801</v>
+      </c>
+      <c r="B193" s="1">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>251</v>
+      </c>
+      <c r="B194" s="1">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>420</v>
+      </c>
+      <c r="B195" s="1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>277</v>
+      </c>
+      <c r="B196" s="1">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>328</v>
+      </c>
+      <c r="B197" s="1">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>676</v>
+      </c>
+      <c r="B198" s="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>901</v>
+      </c>
+      <c r="B199" s="1">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>505</v>
+      </c>
+      <c r="B200" s="1">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>709</v>
+      </c>
+      <c r="B201" s="1">
+        <v>931</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/datos_prueba_wilcoxon.xlsx
+++ b/datos_prueba_wilcoxon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vets/Documents/GitHub/Proyecto_E2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5279F4C5-C257-8049-A62D-8B74092E8ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB9D272-903D-1647-A4BC-DFDEB0EDB865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2120" windowWidth="28040" windowHeight="17440" xr2:uid="{A28FB2FE-B59B-3045-A44B-82F8B96CD993}"/>
   </bookViews>
@@ -113,7 +113,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9266BB-677C-604B-891C-AB95597CF827}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="E202" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
